--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value4012.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value4012.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.580614765958417</v>
+        <v>3.696222543716431</v>
       </c>
       <c r="B1">
-        <v>2.559632747337514</v>
+        <v>6.668671131134033</v>
       </c>
       <c r="C1">
-        <v>3.166644642231319</v>
+        <v>6.246330261230469</v>
       </c>
       <c r="D1">
-        <v>3.541318051310851</v>
+        <v>10.19025230407715</v>
       </c>
       <c r="E1">
-        <v>2.004893305403347</v>
+        <v>5.710779666900635</v>
       </c>
     </row>
   </sheetData>
